--- a/1.3.xlsx
+++ b/1.3.xlsx
@@ -2,25 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F043D64B-D1C6-467A-BF56-8F9A6FE1ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D2A61D-F752-4127-9A62-1560A5852E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{1611E544-43AD-4A48-B25F-28C11516FA69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{1611E544-43AD-4A48-B25F-28C11516FA69}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
-    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
-    <sheet name="Лист7" sheetId="7" r:id="rId7"/>
-    <sheet name="Лист8" sheetId="8" r:id="rId8"/>
+    <sheet name="НовыйЛист" sheetId="9" r:id="rId4"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId6"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId7"/>
+    <sheet name="Лист7" sheetId="7" r:id="rId8"/>
+    <sheet name="Лист8" sheetId="8" r:id="rId9"/>
+    <sheet name="Лист11" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="134">
   <si>
     <t>ЗАКАЗЫ</t>
   </si>
@@ -425,6 +427,24 @@
   </si>
   <si>
     <t>Клиент_8</t>
+  </si>
+  <si>
+    <t>Бумага плакатная 70 г/м2</t>
+  </si>
+  <si>
+    <t>Что</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>Кот</t>
+  </si>
+  <si>
+    <t>офисс</t>
+  </si>
+  <si>
+    <t>собака</t>
   </si>
 </sst>
 </file>
@@ -486,6 +506,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C7FBDF-58B3-4ADA-82FC-33E597F2AE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="190500"/>
+          <a:ext cx="609600" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>366130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="Пользователи из таблиц">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EE8DD6-5C6C-472D-9253-99E9F7713B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="695325"/>
+          <a:ext cx="600075" cy="337555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>313731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2E7A08-7739-4EAF-9DC4-8623EA5356FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="1076326"/>
+          <a:ext cx="600075" cy="294680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,6 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26361CD-8CFB-4FDC-94C9-A1CE03B5A10A}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1022,8 +1198,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBCCF43-E1AC-4524-B8A9-E2D2CFECA0E8}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12B57C4-424A-42BF-8C3F-47DFB0CF259E}">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1207,6 +1427,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60CE6C8-D5FC-49E7-BBD9-2DC28D9CDAAB}">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1387,7 +1608,156 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EF7E-3E11-42EE-ADA2-E969437BB309}">
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="B1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>5.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB05C5D-40FB-4708-BFE8-93A8EFA73CFA}">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1560,8 +1930,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14EB74-A672-432F-8482-813879C92B30}">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1858,8 +2229,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFF7DA-7201-4167-88D4-A42DF9B7EA8A}">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2179,8 +2551,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC805CA-8FF7-4E4D-8014-AF889A95EE77}">
+  <sheetPr codeName="Лист8"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2306,11 +2679,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD185C0F-DAAB-416B-83DC-0BF0CBFE264F}">
+  <sheetPr codeName="Лист9"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/1.3.xlsx
+++ b/1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D2A61D-F752-4127-9A62-1560A5852E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8629EF9D-E4BC-4279-ABE8-803B8595BDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{1611E544-43AD-4A48-B25F-28C11516FA69}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="9" xr2:uid="{1611E544-43AD-4A48-B25F-28C11516FA69}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
